--- a/Assets/GameData/GameData.xlsx
+++ b/Assets/GameData/GameData.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Shoot\Assets\GameData\"/>
@@ -12,10 +12,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
   </bookViews>
   <sheets>
-    <sheet name="DATA_LEVEL" sheetId="1" r:id="rId1"/>
+    <sheet name="Export" sheetId="2" r:id="rId1"/>
+    <sheet name="DATA_LEVEL" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Spawn_Interval</t>
   </si>
@@ -41,12 +41,144 @@
   <si>
     <t>Level</t>
   </si>
+  <si>
+    <t>Wave_Interval</t>
+  </si>
+  <si>
+    <t>Fall Speed</t>
+  </si>
+  <si>
+    <r>
+      <t>Dim</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF303336"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> ws </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF101094"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>As</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF303336"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Worksheet</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>For</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF303336"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF101094"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Each</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF303336"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> ws </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF101094"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>In</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF303336"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> ActiveWorkbook.Worksheets</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    ws.SaveAs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7D2727"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"C:\docs\"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF303336"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> &amp; ws.Name &amp; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7D2727"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>".csv"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF303336"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, xlCSV</t>
+    </r>
+  </si>
+  <si>
+    <t>Next</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,13 +186,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF101094"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF303336"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF7D2727"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFF0F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -75,8 +231,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,10 +525,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A2:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -368,14 +576,15 @@
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -386,204 +595,471 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
       <c r="C2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
       <c r="E3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
       <c r="E4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>1.5</v>
+      </c>
+      <c r="G4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
+      </c>
       <c r="E5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>1.5</v>
+      </c>
+      <c r="G5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
       <c r="C6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>1.5</v>
+      </c>
+      <c r="G6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>15</v>
+      </c>
       <c r="E7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
       <c r="E8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>1.5</v>
+      </c>
+      <c r="G8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>20</v>
+      </c>
       <c r="E9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>1.5</v>
+      </c>
+      <c r="G9">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
       <c r="E10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>25</v>
+      </c>
       <c r="E11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
       <c r="C12">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>25</v>
+      </c>
       <c r="E13">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>2.5</v>
+      </c>
+      <c r="G13">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>30</v>
+      </c>
       <c r="E14">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>2.5</v>
+      </c>
+      <c r="G14">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>25</v>
+      </c>
+      <c r="D15">
+        <v>30</v>
+      </c>
       <c r="E15">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
       <c r="C16">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D16">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E16">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>2.5</v>
+      </c>
+      <c r="G16">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>30</v>
+      </c>
+      <c r="D17">
+        <v>35</v>
+      </c>
       <c r="E17">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>2.5</v>
+      </c>
+      <c r="G17">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
       <c r="C18">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D18">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E18">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
       <c r="C19">
-        <v>15</v>
+        <v>35</v>
+      </c>
+      <c r="D19">
+        <v>40</v>
       </c>
       <c r="E19">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>2.5</v>
+      </c>
+      <c r="G19">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>40</v>
+      </c>
+      <c r="D20">
+        <v>50</v>
+      </c>
       <c r="E20">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
       <c r="C21">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D21">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E21">
         <v>8</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
